--- a/excel2mysql/excels/dynamic_config.xlsx
+++ b/excel2mysql/excels/dynamic_config.xlsx
@@ -19,41 +19,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>int(11)|PRI|auto_increment</t>
+  </si>
+  <si>
     <t>自增长ID</t>
   </si>
   <si>
     <t>kind_id</t>
   </si>
   <si>
+    <t>int(11)||</t>
+  </si>
+  <si>
     <t>种类ID</t>
   </si>
   <si>
     <t>dynamic_name</t>
   </si>
   <si>
+    <t>varchar(255)||</t>
+  </si>
+  <si>
     <t>动态名</t>
   </si>
   <si>
     <t>dynamic_content</t>
   </si>
   <si>
+    <t>text||</t>
+  </si>
+  <si>
     <t>动态信息</t>
   </si>
   <si>
     <t>dynamic_value</t>
   </si>
   <si>
-    <t>无注释</t>
+    <t>无</t>
   </si>
   <si>
     <t>start_time</t>
   </si>
   <si>
+    <t>timestamp||on update CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
     <t>开始时间</t>
   </si>
   <si>
@@ -69,7 +84,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>phone</t>
+    <t>qq:</t>
   </si>
   <si>
     <t>qq:147852369</t>
@@ -417,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,25 +443,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -454,77 +469,103 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>43019.682222222225</v>
-      </c>
-      <c r="G3" s="1">
-        <v>43019.682222222225</v>
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" s="1">
+        <v>43049.743495370371</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43049.743495370371</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>43019.644942129627</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G5" s="1">
         <v>43019.644942129627</v>
       </c>
-      <c r="H4" t="s">
-        <v>21</v>
+      <c r="H5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/excel2mysql/excels/dynamic_config.xlsx
+++ b/excel2mysql/excels/dynamic_config.xlsx
@@ -84,7 +84,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>qq:</t>
+    <t>phone</t>
   </si>
   <si>
     <t>qq:147852369</t>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>43049.743495370371</v>
+        <v>43019.682222222225</v>
       </c>
       <c r="G4" s="1">
-        <v>43049.743495370371</v>
+        <v>43019.682222222225</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
